--- a/变量说明.xlsx
+++ b/变量说明.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19319\iCloudDrive\Desktop\hxy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40882480-D673-43D7-BBC3-407721BC2619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
   <si>
     <t>变量类型</t>
   </si>
@@ -169,21 +175,9 @@
     <t>工具变量</t>
   </si>
   <si>
-    <t>保险深度</t>
-  </si>
-  <si>
-    <t>insurance_depth</t>
-  </si>
-  <si>
     <t>各省份的保险深度</t>
   </si>
   <si>
-    <t>与杭州球面距离</t>
-  </si>
-  <si>
-    <t>distance_sphere</t>
-  </si>
-  <si>
     <t>各省份与杭州的球面距离</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>repayment_capacity</t>
   </si>
   <si>
-    <t>偿还生产经营项目欠款的经济能力（（包括银行贷款和民间借款）</t>
-  </si>
-  <si>
     <t>机制分析</t>
   </si>
   <si>
@@ -311,19 +302,29 @@
   </si>
   <si>
     <t>企业偏好的融资渠道是否为银行贷款</t>
+  </si>
+  <si>
+    <t>互联网普及率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>internet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息社会指数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偿还生产经营项目欠款的经济能力（包括银行贷款和民间借款）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,344 +334,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -707,255 +393,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,62 +427,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1296,36 +720,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="A1:F30"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7692307692308" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3076923076923" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3846153846154" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7692307692308" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1538461538462" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="100" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1336,13 +760,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1353,13 +778,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1370,11 +796,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1390,7 +816,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +832,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1418,7 +848,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1432,7 +864,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,8 +880,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1461,8 +896,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1478,7 +914,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1492,8 +930,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="5"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
@@ -1507,8 +946,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1524,7 +964,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1538,9 +980,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1554,256 +996,256 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="8" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="4" t="s">
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="4" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="1" t="s">
+      <c r="F27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="B28" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="8" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="12"/>
       <c r="D30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -1816,14 +1258,24 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D4:D15 D16:D20 D21:D29 D30:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D4:D15 D16:D20 D21:D29 D30:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$D$2:$D$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="D1" listDataValidation="1"/>
   </ignoredErrors>
